--- a/biology/Zoologie/Asiatosuchus/Asiatosuchus.xlsx
+++ b/biology/Zoologie/Asiatosuchus/Asiatosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asiatosuchus est un genre fossile de crocodiliens qui vivaient en Eurasie pendant le Paléogène. L'espèce type, Asiatosuchus grangeri, a été découverte dans la strate éocène d'un gisement fossile de Mongolie-Intérieure, en Chine, et nommée par Charles Mook en 1940. 
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Asiatosuchus a été créé en 1940 par le paléontologue américain Charles Craig Mook (d) (1887-1966)[1],[2],[3].
-Hormis l'espèce type Asiatosuchus grangeri, plusieurs autres espèces ont été décrites par la suite et rattachées au genre, mais cette classification est remise en cause, ne laissant potentiellement que A. grangeri[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Asiatosuchus a été créé en 1940 par le paléontologue américain Charles Craig Mook (d) (1887-1966).
+Hormis l'espèce type Asiatosuchus grangeri, plusieurs autres espèces ont été décrites par la suite et rattachées au genre, mais cette classification est remise en cause, ne laissant potentiellement que A. grangeri. 
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, trente-et-une collections pour trente-trois occurrences de fossiles sont référencées[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, trente-et-une collections pour trente-trois occurrences de fossiles sont référencées :
 Éocène : vingt-cinq dont une en Chine, sept en France, trois en Allemagne, une en Italie, une au Pakistan, une en Roumanie et sept en Espagne ;
-Paléocène : six collections dont quatre en Chine et deux en France[2].</t>
+Paléocène : six collections dont quatre en Chine et deux en France.</t>
         </is>
       </c>
     </row>
@@ -575,14 +591,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, cinq espèces sont encore référencées dans le genre[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, cinq espèces sont encore référencées dans le genre :
 Asiatosuchus depressifrons (Blainville, 1855) avec deux synonymes Crocodylus depressifrons, Crocodilus depressifrons de Blainville 1855
 Asiatosuchus germanicus Berg, 1966
 Asiatosuchus grangeri Mook, 1940 et espèce-type
 Asiatosuchus nanlingensis Young, 1964
-Crocodylus vicetinus Lioy, 1865 mais considéré comme nomen dubium par Kotsakis et al. en 2004[2].</t>
+Crocodylus vicetinus Lioy, 1865 mais considéré comme nomen dubium par Kotsakis et al. en 2004.</t>
         </is>
       </c>
     </row>
@@ -610,7 +628,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des autres crocodyloïdes du Paléogène, Asiatosuchus présente un crâne de forme triangulaire vu du dessus. Ces espèces ont les dents de la mâchoire supérieure plus en avant que celles de la mâchoire inférieure, les chevauchant complètement (surocclusion). C'est une caractéristique propre au crocodyloïdes car les crocodiles modernes ont les mâchoires supérieure et inférieure qui s'emboitent avec peu de chevauchement. Asiatosuchus se distingue des autres crocodyloïdes précoces par sa symphyse mandibulaire formée uniquement d'os dentaires alors que pour de nombreux autres crocodyloïdes elle est formée également d'os spléniaux.
 </t>
